--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262231.632616172</v>
+        <v>2257926.880377358</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283196</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9548792.269784357</v>
+        <v>9548792.269784356</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>57.08569488870559</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>133.8333590606436</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>158.8501001935242</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>140.84429740399</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>60.84311367291385</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>185.4513032437868</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>338.7290878155745</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>372.5866204465001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>156.419830528789</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>183.652323451407</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>52.62617535035486</v>
+        <v>112.7659663630159</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>317.2851200040325</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8302881234605</v>
+        <v>11.83028812346051</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787293</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734616</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>24.59901125429506</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.3478201152266</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719218</v>
+        <v>94.29180769719217</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155194</v>
+        <v>25.42862793155192</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>120.7956838588383</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>103.6652569475291</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305867</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>146.402770578157</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>40.62253010341785</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>31.39650288673331</v>
+        <v>28.7518808581169</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.28101103997165</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>54.32649042089646</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>163.7145813714346</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>26.12116916215706</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.017717176682</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819411</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>129.1078928223814</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>178.2798710842933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>66.25628701154712</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>261.8890829640565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>104.7777418077836</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>205.6779548755971</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>279.4791301439748</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.2426392372655</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="C2" t="n">
-        <v>578.2426392372655</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>578.2426392372655</v>
+        <v>224.59746731481</v>
       </c>
       <c r="E2" t="n">
-        <v>578.2426392372655</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678659</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372655</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372655</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372655</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372655</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372655</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372655</v>
+        <v>603.4370373477794</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.2426392372655</v>
+        <v>414.0172523312947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210.8081319721848</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="C3" t="n">
-        <v>210.8081319721848</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="D3" t="n">
-        <v>210.8081319721848</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="E3" t="n">
-        <v>210.8081319721848</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>201.8127551766207</v>
       </c>
       <c r="G3" t="n">
         <v>64.27357399906981</v>
@@ -4406,55 +4406,55 @@
         <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487952</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487952</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="V3" t="n">
-        <v>400.2279169886697</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="W3" t="n">
-        <v>210.8081319721848</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="X3" t="n">
-        <v>210.8081319721848</v>
+        <v>391.2325401931054</v>
       </c>
       <c r="Y3" t="n">
-        <v>210.8081319721848</v>
+        <v>201.8127551766207</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.9382299012125</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>309.8050880536091</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349385</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295953</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>688.6446580865786</v>
       </c>
       <c r="U4" t="n">
-        <v>560.6825636487952</v>
+        <v>688.6446580865786</v>
       </c>
       <c r="V4" t="n">
-        <v>371.2627786323103</v>
+        <v>499.2248730700938</v>
       </c>
       <c r="W4" t="n">
-        <v>371.2627786323103</v>
+        <v>499.2248730700938</v>
       </c>
       <c r="X4" t="n">
-        <v>183.9382299012125</v>
+        <v>499.2248730700938</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.9382299012125</v>
+        <v>309.8050880536091</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1332.709567064687</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="C5" t="n">
-        <v>1332.709567064687</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="D5" t="n">
-        <v>1332.709567064687</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="E5" t="n">
-        <v>956.3594454015558</v>
+        <v>53.08656907948338</v>
       </c>
       <c r="F5" t="n">
-        <v>545.3735406119483</v>
+        <v>46.14106833027991</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038229</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038229</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4600,19 +4600,19 @@
         <v>1332.709567064687</v>
       </c>
       <c r="U5" t="n">
-        <v>1332.709567064687</v>
+        <v>1079.068705446274</v>
       </c>
       <c r="V5" t="n">
-        <v>1332.709567064687</v>
+        <v>748.0058181027031</v>
       </c>
       <c r="W5" t="n">
-        <v>1332.709567064687</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="X5" t="n">
-        <v>1332.709567064687</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="Y5" t="n">
-        <v>1332.709567064687</v>
+        <v>395.2371628325889</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312.0933058815345</v>
+        <v>662.8886629835073</v>
       </c>
       <c r="C6" t="n">
-        <v>312.0933058815345</v>
+        <v>488.4356337023803</v>
       </c>
       <c r="D6" t="n">
-        <v>312.0933058815345</v>
+        <v>339.501224041129</v>
       </c>
       <c r="E6" t="n">
-        <v>312.0933058815345</v>
+        <v>180.2637690356736</v>
       </c>
       <c r="F6" t="n">
-        <v>165.5587479084195</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
@@ -4649,13 +4649,13 @@
         <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209172</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
         <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>716.7381048692351</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
         <v>1002.071975302568</v>
@@ -4673,25 +4673,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T6" t="n">
-        <v>1543.309735648992</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1385.309906832034</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V6" t="n">
-        <v>1150.157798600291</v>
+        <v>1500.953155702264</v>
       </c>
       <c r="W6" t="n">
-        <v>895.9204418720893</v>
+        <v>1246.715798974062</v>
       </c>
       <c r="X6" t="n">
-        <v>688.0689416665565</v>
+        <v>1038.864298768529</v>
       </c>
       <c r="Y6" t="n">
-        <v>480.3086429016026</v>
+        <v>831.1040000035753</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.800057524098</v>
+        <v>782.9219159203693</v>
       </c>
       <c r="C7" t="n">
-        <v>234.800057524098</v>
+        <v>613.9857329924624</v>
       </c>
       <c r="D7" t="n">
-        <v>234.800057524098</v>
+        <v>463.8690935801267</v>
       </c>
       <c r="E7" t="n">
-        <v>86.88696394170486</v>
+        <v>315.9559999977336</v>
       </c>
       <c r="F7" t="n">
-        <v>33.72921106255854</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="G7" t="n">
         <v>33.72921106255854</v>
@@ -4749,28 +4749,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1175.471604442305</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>972.9993576026061</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>972.9993576026061</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>972.9993576026061</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="V7" t="n">
-        <v>972.9993576026061</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="W7" t="n">
-        <v>683.5821875656454</v>
+        <v>1003.714495063899</v>
       </c>
       <c r="X7" t="n">
-        <v>455.5926366676281</v>
+        <v>1003.714495063899</v>
       </c>
       <c r="Y7" t="n">
-        <v>234.800057524098</v>
+        <v>782.9219159203693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2061.726174534686</v>
+        <v>383.7408534662085</v>
       </c>
       <c r="C8" t="n">
-        <v>1692.763657594274</v>
+        <v>383.7408534662085</v>
       </c>
       <c r="D8" t="n">
-        <v>1334.497958987524</v>
+        <v>383.7408534662085</v>
       </c>
       <c r="E8" t="n">
-        <v>948.7097063892797</v>
+        <v>63.25083326011504</v>
       </c>
       <c r="F8" t="n">
-        <v>537.7238015996721</v>
+        <v>56.30533251091158</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7336115759746</v>
+        <v>44.35554652761814</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7336115759746</v>
+        <v>44.35554652761814</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761814</v>
       </c>
       <c r="J8" t="n">
         <v>156.89270458727</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158981</v>
+        <v>376.2952505158984</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985246</v>
+        <v>685.3852714985251</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556939</v>
+        <v>1060.97691255694</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415483</v>
+        <v>1447.259827415484</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975102</v>
+        <v>1798.680568975104</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.10904063108</v>
+        <v>2064.109040631081</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208118</v>
+        <v>2215.262022208119</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="S8" t="n">
-        <v>2086.573660650136</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="T8" t="n">
-        <v>2086.573660650136</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="U8" t="n">
-        <v>2086.573660650136</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="V8" t="n">
-        <v>2086.573660650136</v>
+        <v>1886.714439037336</v>
       </c>
       <c r="W8" t="n">
-        <v>2086.573660650136</v>
+        <v>1533.945783767222</v>
       </c>
       <c r="X8" t="n">
-        <v>2061.726174534686</v>
+        <v>1160.480025506142</v>
       </c>
       <c r="Y8" t="n">
-        <v>2061.726174534686</v>
+        <v>770.3406935303303</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>597.6083814070614</v>
+        <v>794.4447314068942</v>
       </c>
       <c r="C9" t="n">
-        <v>597.6083814070614</v>
+        <v>619.9917021257672</v>
       </c>
       <c r="D9" t="n">
-        <v>448.6739717458101</v>
+        <v>471.057292464516</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6739717458101</v>
+        <v>311.8198374590605</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>165.2852794859455</v>
       </c>
       <c r="G9" t="n">
         <v>165.2852794859455</v>
@@ -4880,55 +4880,55 @@
         <v>70.04102928676149</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761814</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424026</v>
+        <v>92.56405995424035</v>
       </c>
       <c r="K9" t="n">
-        <v>368.8778585807578</v>
+        <v>514.93549730676</v>
       </c>
       <c r="L9" t="n">
-        <v>917.7777468600318</v>
+        <v>777.1384731364358</v>
       </c>
       <c r="M9" t="n">
-        <v>1243.113120510136</v>
+        <v>1102.473846786541</v>
       </c>
       <c r="N9" t="n">
-        <v>1591.467798350889</v>
+        <v>1450.828524627294</v>
       </c>
       <c r="O9" t="n">
-        <v>1887.92447676604</v>
+        <v>1747.285203042445</v>
       </c>
       <c r="P9" t="n">
-        <v>2106.524031033368</v>
+        <v>1965.884757309773</v>
       </c>
       <c r="Q9" t="n">
-        <v>2202.732847559012</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380905</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472972</v>
+        <v>2217.777326380907</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064428</v>
+        <v>2095.761484099252</v>
       </c>
       <c r="U9" t="n">
-        <v>1656.49633232257</v>
+        <v>1867.661332357393</v>
       </c>
       <c r="V9" t="n">
-        <v>1421.344224090827</v>
+        <v>1632.50922412565</v>
       </c>
       <c r="W9" t="n">
-        <v>1167.106867362626</v>
+        <v>1378.271867397449</v>
       </c>
       <c r="X9" t="n">
-        <v>959.2553671570927</v>
+        <v>1170.420367191916</v>
       </c>
       <c r="Y9" t="n">
-        <v>751.4950683921388</v>
+        <v>962.6600684269622</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>726.8819580237219</v>
+        <v>658.2114099481643</v>
       </c>
       <c r="C10" t="n">
-        <v>726.8819580237219</v>
+        <v>489.2752270202574</v>
       </c>
       <c r="D10" t="n">
-        <v>576.7653186113862</v>
+        <v>339.1585876079216</v>
       </c>
       <c r="E10" t="n">
-        <v>576.7653186113862</v>
+        <v>191.2454940255285</v>
       </c>
       <c r="F10" t="n">
-        <v>472.0529378563063</v>
+        <v>44.35554652761814</v>
       </c>
       <c r="G10" t="n">
-        <v>303.9384347202525</v>
+        <v>44.35554652761814</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150577</v>
+        <v>44.35554652761814</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761811</v>
+        <v>44.35554652761814</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691986</v>
+        <v>60.95254262691994</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274022</v>
+        <v>218.0633423274024</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918424</v>
+        <v>474.6375091918426</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921692</v>
+        <v>755.5481168921697</v>
       </c>
       <c r="N10" t="n">
         <v>1035.213914629316</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546127</v>
+        <v>1277.514248546128</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659236</v>
+        <v>1461.323360659237</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155964</v>
+        <v>1505.148182155965</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620018</v>
+        <v>1505.148182155965</v>
       </c>
       <c r="S10" t="n">
-        <v>1197.947592890922</v>
+        <v>1505.148182155965</v>
       </c>
       <c r="T10" t="n">
-        <v>1197.947592890922</v>
+        <v>1505.148182155965</v>
       </c>
       <c r="U10" t="n">
-        <v>1197.947592890922</v>
+        <v>1505.148182155965</v>
       </c>
       <c r="V10" t="n">
-        <v>1197.947592890922</v>
+        <v>1357.266595713382</v>
       </c>
       <c r="W10" t="n">
-        <v>908.5304228539617</v>
+        <v>1067.849425676421</v>
       </c>
       <c r="X10" t="n">
-        <v>908.5304228539617</v>
+        <v>839.859874778404</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.5304228539617</v>
+        <v>839.859874778404</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5047,46 +5047,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,13 +5360,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>961.444616615148</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.885660588918</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y16" t="n">
-        <v>1143.093081445388</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>989.3306680894888</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>820.3944851615819</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>670.2778457492461</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>522.364752166853</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>375.4748046689426</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.9025067654818</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2392.08784073087</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2209.233006385774</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W22" t="n">
-        <v>1268.333101637269</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X22" t="n">
-        <v>1040.343550739252</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y22" t="n">
-        <v>819.5509715957215</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4041655335318</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>664.287526121196</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3744325388029</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4844850408925</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>202.2883857557725</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6387,49 +6387,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>365.9405071576742</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,7 +6736,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6855,16 +6855,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>538.7363435406111</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.166938412398</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>941.1773875143809</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>720.3848083708508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3195.647281583948</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>3026.711098656041</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>2876.594459243706</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.495046492696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4115.495046492696</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>3826.077876455735</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>3598.088325557718</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>3377.295746414188</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528961</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>75.41988959484648</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>63.37360602116064</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>116.9322686024755</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>289.5928408581803</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>157.2563157025153</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>30.32522655688329</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>211.5151132204101</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>135.8503182118945</v>
+        <v>138.4949402405109</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2431272522972</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>12.04875628922525</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>122.8084169651564</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1735436840668</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194588</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>16.3131552005498</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>73.85777223953465</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.63391537253455</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>181.4067325814605</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>46.45968844823091</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>6.705344245269316</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.366920277</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.366920277</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982131</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="J2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778327</v>
+        <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296883</v>
+        <v>138712.7919296887</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.792174577</v>
+        <v>589678.7921745769</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854462</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153558</v>
+        <v>60247.15959153556</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484243</v>
+        <v>33617.87336484251</v>
       </c>
       <c r="M3" t="n">
         <v>154073.851016728</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,34 +26423,34 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296195</v>
+        <v>170385.5244296194</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685502</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.752076855</v>
       </c>
       <c r="G4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14216.75207685512</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14216.752076855</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.752076855</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685501</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685511</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.0402996929</v>
+        <v>86168.04029969293</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-310730.5521974529</v>
       </c>
       <c r="C6" t="n">
-        <v>71792.22402562981</v>
+        <v>71792.22402562975</v>
       </c>
       <c r="D6" t="n">
-        <v>220514.9707392124</v>
+        <v>220514.9707392118</v>
       </c>
       <c r="E6" t="n">
-        <v>-99658.1243078347</v>
+        <v>-100005.503562192</v>
       </c>
       <c r="F6" t="n">
-        <v>490020.6678667419</v>
+        <v>489673.2886123853</v>
       </c>
       <c r="G6" t="n">
-        <v>490020.6678667423</v>
+        <v>489673.2886123849</v>
       </c>
       <c r="H6" t="n">
-        <v>490020.6678667425</v>
+        <v>489673.2886123852</v>
       </c>
       <c r="I6" t="n">
-        <v>490020.6678667422</v>
+        <v>489673.288612385</v>
       </c>
       <c r="J6" t="n">
-        <v>440955.7231381976</v>
+        <v>440608.3438838406</v>
       </c>
       <c r="K6" t="n">
-        <v>429773.5082752066</v>
+        <v>429426.1290208498</v>
       </c>
       <c r="L6" t="n">
-        <v>456402.7945018998</v>
+        <v>456055.4152475429</v>
       </c>
       <c r="M6" t="n">
-        <v>335946.8168500141</v>
+        <v>335599.4375956573</v>
       </c>
       <c r="N6" t="n">
-        <v>490020.6678667424</v>
+        <v>489673.2886123853</v>
       </c>
       <c r="O6" t="n">
-        <v>490020.6678667424</v>
+        <v>489673.2886123853</v>
       </c>
       <c r="P6" t="n">
-        <v>490020.6678667422</v>
+        <v>489673.2886123846</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790435</v>
+        <v>863.7717861790438</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952263</v>
+        <v>554.4443315952267</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847053</v>
+        <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814335</v>
+        <v>113.7908296814338</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626303</v>
+        <v>504.2037141626301</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132445</v>
+        <v>132.8291933132448</v>
       </c>
       <c r="E4" t="n">
-        <v>618.263956504422</v>
+        <v>618.2639565044219</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>234.0895511156615</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132448</v>
+        <v>132.8291933132451</v>
       </c>
       <c r="M4" t="n">
-        <v>618.263956504422</v>
+        <v>618.2639565044221</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132445</v>
+        <v>132.8291933132448</v>
       </c>
       <c r="M4" t="n">
-        <v>618.263956504422</v>
+        <v>618.2639565044219</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7903508530059</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.94245412940947</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27469,10 +27469,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681213</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>73.95048695590106</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>64.92868779948745</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27590,22 +27590,22 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>162.8765598171862</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713027</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750799</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>40.25835214525034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577492</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>26.54380395543308</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>9.343749625761689</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,13 +27697,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
         <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>69.41542217154938</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>49.1482636980183</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>92.79487267257639</v>
+        <v>32.65508165991533</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.2028876639205</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>64.64525006822925</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>303.9125797832802</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.60428439787287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734616</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -27912,16 +27912,16 @@
         <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>345.132089424174</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.18536353464071</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1730436088544</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>71.88030642561972</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.75579107540216</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3785035421428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685652</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305867</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
         <v>221.2902986167381</v>
@@ -28070,13 +28070,13 @@
         <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>105.734872745671</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-7.522685120334029e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-2.177307595441769e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-2.513579447258118e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-9.094947017729281e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31363,7 +31363,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31396,7 +31396,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31469,13 +31469,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674544</v>
+        <v>3.472449391674545</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248693</v>
+        <v>35.56222233248695</v>
       </c>
       <c r="I8" t="n">
         <v>133.871605172533</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566376</v>
+        <v>294.7198015566377</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062212</v>
+        <v>441.7085843062213</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766811</v>
+        <v>547.9785573766814</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458732</v>
+        <v>609.7317292458735</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799686</v>
+        <v>619.5978260799689</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415048</v>
+        <v>585.068657441505</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845394</v>
+        <v>499.3425630845396</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451947</v>
+        <v>374.9854692451948</v>
       </c>
       <c r="R8" t="n">
         <v>218.1262490997763</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278375</v>
+        <v>79.12844051278378</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205532</v>
+        <v>15.20064721205533</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339635</v>
+        <v>0.2777959513339636</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,43 +31597,43 @@
         <v>1.857924219328509</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930428</v>
+        <v>17.94363653930429</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986313</v>
+        <v>63.96800491986316</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743658</v>
+        <v>175.5330947743659</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693759</v>
+        <v>300.014017469376</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169203</v>
+        <v>403.4058705169205</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675786</v>
+        <v>470.7556234675788</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436896</v>
+        <v>483.2151240436899</v>
       </c>
       <c r="O9" t="n">
-        <v>442.047434762779</v>
+        <v>442.0474347627792</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873887</v>
+        <v>354.7820379873888</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.162396839197</v>
+        <v>237.1623968391971</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070806</v>
+        <v>115.3542774070807</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498346</v>
+        <v>34.51012749498347</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363592</v>
+        <v>7.488738410363594</v>
       </c>
       <c r="U9" t="n">
         <v>0.1222318565347704</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765488</v>
+        <v>1.557621253765489</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8486689652968</v>
+        <v>13.84866896529681</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869306</v>
+        <v>46.84191915869307</v>
       </c>
       <c r="J10" t="n">
         <v>110.12382264122</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011176</v>
+        <v>180.9672693011177</v>
       </c>
       <c r="L10" t="n">
-        <v>231.57579985528</v>
+        <v>231.5757998552801</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243482</v>
+        <v>244.1642116243484</v>
       </c>
       <c r="N10" t="n">
-        <v>238.358532405768</v>
+        <v>238.3585324057681</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231438</v>
+        <v>220.1626841231439</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463277</v>
+        <v>188.3872105463278</v>
       </c>
       <c r="Q10" t="n">
         <v>130.4295397130356</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658275</v>
+        <v>70.03631564658278</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516763</v>
+        <v>27.14509039516764</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543447</v>
+        <v>6.65529081154345</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629945</v>
+        <v>0.08496115929629948</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L12" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543365</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,37 +32788,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543366</v>
       </c>
       <c r="L30" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175041</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>99.08507489005474</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>186.0231941729574</v>
+        <v>186.0231941729573</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
         <v>174.0696575289995</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299513</v>
+        <v>113.6738970299514</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612406</v>
+        <v>221.6187332612408</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066939</v>
+        <v>312.2121424066941</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186005</v>
+        <v>379.3854960186007</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833777</v>
+        <v>390.1847624833779</v>
       </c>
       <c r="O8" t="n">
-        <v>354.970446019818</v>
+        <v>354.9704460198183</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292699</v>
+        <v>268.1095673292701</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707452</v>
+        <v>152.6797793707454</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644136</v>
+        <v>2.540711285644221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769916</v>
+        <v>48.69546810769921</v>
       </c>
       <c r="K9" t="n">
-        <v>279.1048470974924</v>
+        <v>426.6378155075956</v>
       </c>
       <c r="L9" t="n">
-        <v>554.4443315952263</v>
+        <v>264.8514907370463</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455603</v>
+        <v>328.6215895455605</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603563</v>
+        <v>351.8734119603565</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183346</v>
+        <v>299.4511903183347</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730584</v>
+        <v>220.8076305730586</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1806227531755</v>
+        <v>254.4369384556909</v>
       </c>
       <c r="R9" t="n">
-        <v>15.19644325443748</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454723</v>
+        <v>16.76464252454727</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752347</v>
+        <v>158.6977774752348</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155961</v>
+        <v>259.1658251155962</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861888</v>
+        <v>283.7480885861889</v>
       </c>
       <c r="N10" t="n">
         <v>282.4907047849966</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371835</v>
+        <v>244.7478120371836</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112212</v>
+        <v>185.6657698112213</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134117</v>
+        <v>44.26749646134122</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.626132989904</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997754</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876631</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191276</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.9785935799776</v>
       </c>
       <c r="L30" t="n">
-        <v>432.0572943778175</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2257926.880377358</v>
+        <v>2259687.410680143</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283196</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.8333590606436</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>145.1986582043248</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>140.84429740399</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>26.6257374887693</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>31.8847628218935</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>60.84311367291385</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>338.7290878155745</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.28773869504416</v>
+        <v>351.0168265106186</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>112.7659663630159</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>134.2612106216641</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>317.2851200040475</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>317.2851200040325</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346051</v>
+        <v>11.83028812346049</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719217</v>
+        <v>47.84012920313945</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155192</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>120.7956838588383</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>39.68617527726548</v>
       </c>
       <c r="V10" t="n">
-        <v>146.402770578157</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>40.62253010341785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7518808581169</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>182.3203821379245</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.32649042089646</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.017717176682</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>220.4289331391115</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819411</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>129.1078928223814</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>156.0046924576054</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>185.4048731212358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
-        <v>279.4791301439748</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.0172523312947</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="C2" t="n">
-        <v>224.59746731481</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="D2" t="n">
-        <v>224.59746731481</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>35.17768229832525</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>28.23218154912178</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985576</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S2" t="n">
-        <v>603.4370373477794</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="T2" t="n">
-        <v>603.4370373477794</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="U2" t="n">
-        <v>603.4370373477794</v>
+        <v>560.682563648794</v>
       </c>
       <c r="V2" t="n">
-        <v>603.4370373477794</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="W2" t="n">
-        <v>603.4370373477794</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="X2" t="n">
-        <v>603.4370373477794</v>
+        <v>414.0172523312942</v>
       </c>
       <c r="Y2" t="n">
-        <v>414.0172523312947</v>
+        <v>224.5974673148098</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.8127551766207</v>
+        <v>338.3894859156838</v>
       </c>
       <c r="C3" t="n">
-        <v>201.8127551766207</v>
+        <v>163.9364566345568</v>
       </c>
       <c r="D3" t="n">
-        <v>201.8127551766207</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E3" t="n">
-        <v>201.8127551766207</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8127551766207</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476339</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="V3" t="n">
-        <v>533.4995072678428</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="W3" t="n">
-        <v>533.4995072678428</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="X3" t="n">
-        <v>391.2325401931054</v>
+        <v>533.4995072678421</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.8127551766207</v>
+        <v>506.6048229357519</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.8050880536091</v>
+        <v>367.8859279516571</v>
       </c>
       <c r="C4" t="n">
-        <v>309.8050880536091</v>
+        <v>367.8859279516571</v>
       </c>
       <c r="D4" t="n">
-        <v>309.8050880536091</v>
+        <v>217.7692885393214</v>
       </c>
       <c r="E4" t="n">
-        <v>161.891994471216</v>
+        <v>217.7692885393214</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>70.87934104141101</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>70.87934104141101</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818525</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>721.9284911143035</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="T4" t="n">
-        <v>688.6446580865786</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="U4" t="n">
-        <v>688.6446580865786</v>
+        <v>746.7254979846261</v>
       </c>
       <c r="V4" t="n">
-        <v>499.2248730700938</v>
+        <v>557.3057129681416</v>
       </c>
       <c r="W4" t="n">
-        <v>499.2248730700938</v>
+        <v>557.3057129681416</v>
       </c>
       <c r="X4" t="n">
-        <v>499.2248730700938</v>
+        <v>367.8859279516571</v>
       </c>
       <c r="Y4" t="n">
-        <v>309.8050880536091</v>
+        <v>367.8859279516571</v>
       </c>
     </row>
     <row r="5">
@@ -4546,16 +4546,16 @@
         <v>395.2371628325889</v>
       </c>
       <c r="C5" t="n">
-        <v>53.08656907948338</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="D5" t="n">
-        <v>53.08656907948338</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="E5" t="n">
-        <v>53.08656907948338</v>
+        <v>395.2371628325889</v>
       </c>
       <c r="F5" t="n">
-        <v>46.14106833027991</v>
+        <v>388.2916620833855</v>
       </c>
       <c r="G5" t="n">
         <v>33.72921106255854</v>
@@ -4646,7 +4646,7 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>59.04473788968937</v>
+        <v>121.7846078506383</v>
       </c>
       <c r="K6" t="n">
         <v>243.2077001209171</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>782.9219159203693</v>
+        <v>647.5850744831047</v>
       </c>
       <c r="C7" t="n">
-        <v>613.9857329924624</v>
+        <v>478.6488915551978</v>
       </c>
       <c r="D7" t="n">
-        <v>463.8690935801267</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>315.9559999977336</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
-        <v>202.0509834694346</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G7" t="n">
         <v>33.72921106255854</v>
@@ -4752,25 +4752,25 @@
         <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1157.514280634533</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>1157.514280634533</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>868.3776536266348</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.13166510086</v>
+        <v>868.3776536266348</v>
       </c>
       <c r="W7" t="n">
-        <v>1003.714495063899</v>
+        <v>868.3776536266348</v>
       </c>
       <c r="X7" t="n">
-        <v>1003.714495063899</v>
+        <v>868.3776536266348</v>
       </c>
       <c r="Y7" t="n">
-        <v>782.9219159203693</v>
+        <v>647.5850744831047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.7408534662085</v>
+        <v>383.740853466224</v>
       </c>
       <c r="C8" t="n">
-        <v>383.7408534662085</v>
+        <v>63.25083326011534</v>
       </c>
       <c r="D8" t="n">
-        <v>383.7408534662085</v>
+        <v>63.25083326011534</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011504</v>
+        <v>63.25083326011534</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091158</v>
+        <v>56.30533251091187</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761814</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761814</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761814</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="J8" t="n">
-        <v>156.89270458727</v>
+        <v>156.8927045872715</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158984</v>
+        <v>376.2952505159013</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985251</v>
+        <v>685.3852714985301</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.97691255694</v>
+        <v>1060.976912556947</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415484</v>
+        <v>1447.259827415493</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975104</v>
+        <v>1798.680568975115</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631081</v>
+        <v>2064.109040631095</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208119</v>
+        <v>2215.262022208134</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="V8" t="n">
-        <v>1886.714439037336</v>
+        <v>1886.714439037351</v>
       </c>
       <c r="W8" t="n">
-        <v>1533.945783767222</v>
+        <v>1533.945783767237</v>
       </c>
       <c r="X8" t="n">
-        <v>1160.480025506142</v>
+        <v>1160.480025506158</v>
       </c>
       <c r="Y8" t="n">
-        <v>770.3406935303303</v>
+        <v>770.3406935303458</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>794.4447314068942</v>
+        <v>721.8383612800212</v>
       </c>
       <c r="C9" t="n">
-        <v>619.9917021257672</v>
+        <v>547.3853319988942</v>
       </c>
       <c r="D9" t="n">
-        <v>471.057292464516</v>
+        <v>398.450922337643</v>
       </c>
       <c r="E9" t="n">
-        <v>311.8198374590605</v>
+        <v>239.2134673321875</v>
       </c>
       <c r="F9" t="n">
-        <v>165.2852794859455</v>
+        <v>92.67890935907243</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>92.67890935907243</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676149</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761814</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424035</v>
+        <v>92.56405995424129</v>
       </c>
       <c r="K9" t="n">
-        <v>514.93549730676</v>
+        <v>514.935497306762</v>
       </c>
       <c r="L9" t="n">
-        <v>777.1384731364358</v>
+        <v>777.1384731364392</v>
       </c>
       <c r="M9" t="n">
-        <v>1102.473846786541</v>
+        <v>1102.473846786546</v>
       </c>
       <c r="N9" t="n">
-        <v>1450.828524627294</v>
+        <v>1450.828524627301</v>
       </c>
       <c r="O9" t="n">
-        <v>1747.285203042445</v>
+        <v>1747.285203042454</v>
       </c>
       <c r="P9" t="n">
-        <v>1965.884757309773</v>
+        <v>2121.568509855278</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="S9" t="n">
-        <v>2217.777326380907</v>
+        <v>2217.777326380922</v>
       </c>
       <c r="T9" t="n">
-        <v>2095.761484099252</v>
+        <v>2023.155113972379</v>
       </c>
       <c r="U9" t="n">
-        <v>1867.661332357393</v>
+        <v>1795.05496223052</v>
       </c>
       <c r="V9" t="n">
-        <v>1632.50922412565</v>
+        <v>1559.902853998778</v>
       </c>
       <c r="W9" t="n">
-        <v>1378.271867397449</v>
+        <v>1305.665497270576</v>
       </c>
       <c r="X9" t="n">
-        <v>1170.420367191916</v>
+        <v>1097.813997065043</v>
       </c>
       <c r="Y9" t="n">
-        <v>962.6600684269622</v>
+        <v>890.0536983000893</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>658.2114099481643</v>
+        <v>511.3214624502542</v>
       </c>
       <c r="C10" t="n">
-        <v>489.2752270202574</v>
+        <v>342.3852795223473</v>
       </c>
       <c r="D10" t="n">
-        <v>339.1585876079216</v>
+        <v>192.2686401100116</v>
       </c>
       <c r="E10" t="n">
-        <v>191.2454940255285</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761814</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761814</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761814</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761814</v>
+        <v>44.35554652761844</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691994</v>
+        <v>60.95254262692063</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274024</v>
+        <v>218.0633423274037</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918426</v>
+        <v>474.6375091918447</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921697</v>
+        <v>755.5481168921726</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629316</v>
+        <v>1035.21391462932</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546128</v>
+        <v>1277.514248546133</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659237</v>
+        <v>1461.323360659242</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155965</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155965</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155965</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155965</v>
+        <v>1505.148182155971</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155965</v>
+        <v>1465.061136421359</v>
       </c>
       <c r="V10" t="n">
-        <v>1357.266595713382</v>
+        <v>1210.376648215472</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.849425676421</v>
+        <v>920.9594781785113</v>
       </c>
       <c r="X10" t="n">
-        <v>839.859874778404</v>
+        <v>692.9699272804939</v>
       </c>
       <c r="Y10" t="n">
-        <v>839.859874778404</v>
+        <v>692.9699272804939</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687895</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5308,22 +5308,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5366,13 +5366,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740068</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5448,40 +5448,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.91737983266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487564</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510505</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854703</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648816</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611855</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138379</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703078</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2392.08784073087</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2209.233006385774</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1989.631541408715</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>928.4651056120481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,7 +6065,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400676</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
         <v>402.7245934908939</v>
@@ -6387,49 +6387,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611855</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138374</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703073</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6454,61 +6454,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400673</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400673</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400673</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576742</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,7 +7013,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7086,7 +7086,7 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,22 +7119,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
         <v>1501.108204237296</v>
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192764</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,7 +7250,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7362,7 +7362,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,7 +7487,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1878.013763195024</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1623.329274989137</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1333.912104952176</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457082</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484648</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777582</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="K6" t="n">
-        <v>63.37360602116058</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>157.2563157025201</v>
       </c>
       <c r="Q9" t="n">
-        <v>157.2563157025153</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688329</v>
+        <v>30.32522655688288</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>91.59190980143154</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>211.5151132204101</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405109</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>103.8640922513196</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.04875628922525</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194588</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>66.09406519747947</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>16.3131552005498</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>61.40075786968288</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
-        <v>6.705344245269316</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845238.400410682</v>
+        <v>845238.4004106821</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820565.366920277</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>820565.366920277</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.949767504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
         <v>605359.9497675042</v>
@@ -26337,22 +26337,22 @@
         <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778329</v>
+        <v>259123.8056778333</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296887</v>
+        <v>138712.7919296926</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745769</v>
+        <v>589678.7921745729</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854462</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153556</v>
+        <v>60247.15959153573</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484251</v>
+        <v>33617.87336484343</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.851016728</v>
+        <v>154073.851016727</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296194</v>
+        <v>170385.5244296183</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685502</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="H4" t="n">
+        <v>14216.75207685505</v>
+      </c>
+      <c r="I4" t="n">
         <v>14216.75207685512</v>
       </c>
-      <c r="I4" t="n">
-        <v>14216.75207685511</v>
-      </c>
       <c r="J4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969293</v>
+        <v>86168.04029969324</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-310730.5521974529</v>
       </c>
       <c r="C6" t="n">
-        <v>71792.22402562975</v>
+        <v>71792.2240256294</v>
       </c>
       <c r="D6" t="n">
-        <v>220514.9707392118</v>
+        <v>220514.970739209</v>
       </c>
       <c r="E6" t="n">
-        <v>-100005.503562192</v>
+        <v>-99692.86223326626</v>
       </c>
       <c r="F6" t="n">
-        <v>489673.2886123853</v>
+        <v>489985.9299413064</v>
       </c>
       <c r="G6" t="n">
-        <v>489673.2886123849</v>
+        <v>489985.9299413061</v>
       </c>
       <c r="H6" t="n">
-        <v>489673.2886123852</v>
+        <v>489985.9299413064</v>
       </c>
       <c r="I6" t="n">
-        <v>489673.288612385</v>
+        <v>489985.9299413063</v>
       </c>
       <c r="J6" t="n">
-        <v>440608.3438838406</v>
+        <v>440920.985212762</v>
       </c>
       <c r="K6" t="n">
-        <v>429426.1290208498</v>
+        <v>429738.7703497707</v>
       </c>
       <c r="L6" t="n">
-        <v>456055.4152475429</v>
+        <v>456368.0565764628</v>
       </c>
       <c r="M6" t="n">
-        <v>335599.4375956573</v>
+        <v>335912.0789245794</v>
       </c>
       <c r="N6" t="n">
-        <v>489673.2886123853</v>
+        <v>489985.9299413064</v>
       </c>
       <c r="O6" t="n">
-        <v>489673.2886123853</v>
+        <v>489985.9299413062</v>
       </c>
       <c r="P6" t="n">
-        <v>489673.2886123846</v>
+        <v>489985.9299413061</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790438</v>
+        <v>863.7717861790469</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952267</v>
+        <v>554.4443315952306</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847054</v>
+        <v>201.5110155847058</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814338</v>
+        <v>113.7908296814369</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626301</v>
+        <v>504.2037141626269</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132448</v>
+        <v>132.8291933132487</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044219</v>
+        <v>618.2639565044178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156615</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132451</v>
+        <v>132.8291933132487</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044221</v>
+        <v>618.2639565044178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.419150020582837e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132448</v>
+        <v>132.8291933132487</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044219</v>
+        <v>618.2639565044178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543633</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>24.94245412940947</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871069</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>182.5536002658101</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,16 +27517,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>64.92868779948745</v>
+        <v>18.24739803715784</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>179.056958288535</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>121.5489080099261</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27590,22 +27590,22 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>162.8765598171862</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>64.61205615750836</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271751</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>26.54380395543308</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>61.27091218442553</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>32.65508165991533</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
         <v>150.2028876639205</v>
@@ -27824,19 +27824,19 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>66.18631374963738</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>47.98777176696001</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>64.64525006822925</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832802</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787287</v>
+        <v>76.60428439787239</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734616</v>
+        <v>129.8916290734613</v>
       </c>
       <c r="T8" t="n">
         <v>207.895202352076</v>
@@ -27949,10 +27949,10 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>46.45167849405266</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155169</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
-        <v>71.88030642561972</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685652</v>
+        <v>108.608555768565</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305867</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>196.8715076418045</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2902986167381</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>246.5478929199291</v>
       </c>
       <c r="V10" t="n">
-        <v>105.734872745671</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.522685120334029e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.204090620313795e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.204090620313795e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.177307595441769e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28623,13 +28623,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.56674739427399e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-2.513579447258118e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674545</v>
+        <v>3.472449391674558</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248695</v>
+        <v>35.56222233248707</v>
       </c>
       <c r="I8" t="n">
-        <v>133.871605172533</v>
+        <v>133.8716051725335</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566377</v>
+        <v>294.7198015566387</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062213</v>
+        <v>441.7085843062229</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766814</v>
+        <v>547.9785573766833</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458735</v>
+        <v>609.7317292458756</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799689</v>
+        <v>619.597826079971</v>
       </c>
       <c r="O8" t="n">
-        <v>585.068657441505</v>
+        <v>585.0686574415071</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845396</v>
+        <v>499.3425630845414</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451948</v>
+        <v>374.9854692451962</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997763</v>
+        <v>218.1262490997771</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278378</v>
+        <v>79.12844051278407</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205533</v>
+        <v>15.20064721205538</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339636</v>
+        <v>0.2777959513339646</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328509</v>
+        <v>1.857924219328516</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930429</v>
+        <v>17.94363653930435</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986316</v>
+        <v>63.96800491986339</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743659</v>
+        <v>175.5330947743665</v>
       </c>
       <c r="K9" t="n">
-        <v>300.014017469376</v>
+        <v>300.0140174693771</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169205</v>
+        <v>403.4058705169219</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675788</v>
+        <v>470.7556234675805</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436899</v>
+        <v>483.2151240436916</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627792</v>
+        <v>442.0474347627807</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873888</v>
+        <v>354.7820379873901</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391971</v>
+        <v>237.162396839198</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070807</v>
+        <v>115.3542774070811</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498347</v>
+        <v>34.5101274949836</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363594</v>
+        <v>7.488738410363621</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347704</v>
+        <v>0.1222318565347708</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765489</v>
+        <v>1.557621253765494</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529681</v>
+        <v>13.84866896529686</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869307</v>
+        <v>46.84191915869324</v>
       </c>
       <c r="J10" t="n">
-        <v>110.12382264122</v>
+        <v>110.1238226412204</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011177</v>
+        <v>180.9672693011183</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552801</v>
+        <v>231.5757998552809</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243484</v>
+        <v>244.1642116243492</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057681</v>
+        <v>238.3585324057689</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231439</v>
+        <v>220.1626841231447</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463278</v>
+        <v>188.3872105463284</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130356</v>
+        <v>130.4295397130361</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658278</v>
+        <v>70.03631564658302</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516764</v>
+        <v>27.14509039516774</v>
       </c>
       <c r="T10" t="n">
-        <v>6.65529081154345</v>
+        <v>6.655290811543473</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629948</v>
+        <v>0.08496115929629978</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543365</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982898</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543366</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982898</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982898</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005474</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068189</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.57123921932407</v>
+        <v>88.94484524048465</v>
       </c>
       <c r="K6" t="n">
-        <v>186.0231941729573</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299514</v>
+        <v>113.6738970299525</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612408</v>
+        <v>221.6187332612423</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066941</v>
+        <v>312.212142406696</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186007</v>
+        <v>379.3854960186029</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833779</v>
+        <v>390.1847624833801</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198183</v>
+        <v>354.9704460198203</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292701</v>
+        <v>268.1095673292718</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707454</v>
+        <v>152.6797793707467</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644221</v>
+        <v>2.540711285645017</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769921</v>
+        <v>48.69546810769984</v>
       </c>
       <c r="K9" t="n">
-        <v>426.6378155075956</v>
+        <v>426.6378155075967</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370463</v>
+        <v>264.8514907370477</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455605</v>
+        <v>328.6215895455622</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603565</v>
+        <v>351.8734119603582</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183347</v>
+        <v>299.4511903183363</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730586</v>
+        <v>378.0639462755799</v>
       </c>
       <c r="Q9" t="n">
-        <v>254.4369384556909</v>
+        <v>97.18062275317644</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454727</v>
+        <v>16.76464252454767</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752348</v>
+        <v>158.6977774752354</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155962</v>
+        <v>259.165825115597</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861889</v>
+        <v>283.7480885861898</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849966</v>
+        <v>282.4907047849975</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371836</v>
+        <v>244.7478120371843</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112213</v>
+        <v>185.6657698112219</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134122</v>
+        <v>44.26749646134168</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.626132989904</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997754</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.0934576762715</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191276</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.9785935799776</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762715</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762715</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
